--- a/Data_preparation/datasets/final_data/Recursion_Pharmaceuticals_Inc.xlsx
+++ b/Data_preparation/datasets/final_data/Recursion_Pharmaceuticals_Inc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,54 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>3661 TT</t>
-  </si>
-  <si>
-    <t>IFX GR</t>
-  </si>
-  <si>
-    <t>6701 JP</t>
-  </si>
-  <si>
-    <t>2344 TT</t>
-  </si>
-  <si>
-    <t>AMP IM</t>
-  </si>
-  <si>
-    <t>EXPN LN</t>
-  </si>
-  <si>
-    <t>UBI FP</t>
-  </si>
-  <si>
-    <t>WKL NA</t>
-  </si>
-  <si>
-    <t>5803 JP</t>
-  </si>
-  <si>
-    <t>6954 JP</t>
-  </si>
-  <si>
-    <t>ENR GR</t>
-  </si>
-  <si>
-    <t>3665 TT</t>
-  </si>
-  <si>
-    <t>3443 TT</t>
-  </si>
-  <si>
-    <t>6526 JP</t>
-  </si>
-  <si>
-    <t>CCC LN</t>
-  </si>
-  <si>
-    <t>6588 JP</t>
   </si>
 </sst>
 </file>
@@ -700,22 +652,22 @@
         <v>43830</v>
       </c>
       <c r="D2">
-        <v>222.8461507933775</v>
+        <v>30</v>
       </c>
       <c r="E2">
-        <v>219.044937133789</v>
+        <v>33.40000152587891</v>
       </c>
       <c r="F2">
-        <v>252.7807083626373</v>
+        <v>35.77999877929688</v>
       </c>
       <c r="G2">
-        <v>203.3649307879864</v>
+        <v>25.17000007629395</v>
       </c>
       <c r="H2">
-        <v>80995217</v>
+        <v>429709983</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>-62676000</v>
@@ -744,22 +696,22 @@
         <v>43921</v>
       </c>
       <c r="D3">
-        <v>12.41129859768217</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>16.23237037658691</v>
+        <v>33.40000152587891</v>
       </c>
       <c r="F3">
-        <v>17.16704825563687</v>
+        <v>35.77999877929688</v>
       </c>
       <c r="G3">
-        <v>12.05887897968325</v>
+        <v>25.17000007629395</v>
       </c>
       <c r="H3">
-        <v>1299391231</v>
+        <v>429709983</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P3">
         <v>60000</v>
@@ -821,22 +773,22 @@
         <v>44012</v>
       </c>
       <c r="D4">
-        <v>970.3393129824782</v>
+        <v>30</v>
       </c>
       <c r="E4">
-        <v>1088.628295898438</v>
+        <v>33.40000152587891</v>
       </c>
       <c r="F4">
-        <v>1118.200541627427</v>
+        <v>35.77999877929688</v>
       </c>
       <c r="G4">
-        <v>950.0083940437976</v>
+        <v>25.17000007629395</v>
       </c>
       <c r="H4">
-        <v>1333460157</v>
+        <v>429709983</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P4">
         <v>186000</v>
@@ -898,22 +850,22 @@
         <v>44104</v>
       </c>
       <c r="D5">
-        <v>12.7733873356874</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <v>15.52035236358643</v>
+        <v>33.40000152587891</v>
       </c>
       <c r="F5">
-        <v>17.30587870681586</v>
+        <v>35.77999877929688</v>
       </c>
       <c r="G5">
-        <v>12.68182262753309</v>
+        <v>25.17000007629395</v>
       </c>
       <c r="H5">
-        <v>4500000193</v>
+        <v>429709983</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P5">
         <v>1025000</v>
@@ -975,22 +927,22 @@
         <v>44196</v>
       </c>
       <c r="D6">
-        <v>32.50755730601569</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>31.25653076171875</v>
+        <v>33.40000152587891</v>
       </c>
       <c r="F6">
-        <v>32.99459606093095</v>
+        <v>35.77999877929688</v>
       </c>
       <c r="G6">
-        <v>30.77904021483708</v>
+        <v>25.17000007629395</v>
       </c>
       <c r="H6">
-        <v>219937482</v>
+        <v>429709983</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K6">
         <v>-241639000</v>
@@ -1070,22 +1022,22 @@
         <v>44286</v>
       </c>
       <c r="D7">
-        <v>2516.34996159507</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>2790.17041015625</v>
+        <v>33.40000152587891</v>
       </c>
       <c r="F7">
-        <v>2807.159270103477</v>
+        <v>35.77999877929688</v>
       </c>
       <c r="G7">
-        <v>2503.838146397838</v>
+        <v>25.17000007629395</v>
       </c>
       <c r="H7">
-        <v>913159452</v>
+        <v>429709983</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K7">
         <v>-196646000</v>
@@ -1168,22 +1120,22 @@
         <v>44377</v>
       </c>
       <c r="D8">
-        <v>40.06459571156605</v>
+        <v>36.72000122070312</v>
       </c>
       <c r="E8">
-        <v>40.04537963867188</v>
+        <v>30.35000038146973</v>
       </c>
       <c r="F8">
-        <v>40.5353766696543</v>
+        <v>42.81000137329102</v>
       </c>
       <c r="G8">
-        <v>36.25990124070713</v>
+        <v>29.20000076293945</v>
       </c>
       <c r="H8">
-        <v>219937482</v>
+        <v>429709983</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>6143707192</v>
@@ -1284,22 +1236,22 @@
         <v>44469</v>
       </c>
       <c r="D9">
-        <v>51.72000122070312</v>
+        <v>22.96999931335449</v>
       </c>
       <c r="E9">
-        <v>45.22999954223633</v>
+        <v>19.14999961853028</v>
       </c>
       <c r="F9">
-        <v>53.2400016784668</v>
+        <v>23.86000061035156</v>
       </c>
       <c r="G9">
-        <v>43.54000091552734</v>
+        <v>16.5</v>
       </c>
       <c r="H9">
-        <v>134598631</v>
+        <v>429709983</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>3876803816</v>
@@ -1400,22 +1352,22 @@
         <v>44561</v>
       </c>
       <c r="D10">
-        <v>98.06110899770088</v>
+        <v>17.20000076293945</v>
       </c>
       <c r="E10">
-        <v>84.43734741210938</v>
+        <v>11.84000015258789</v>
       </c>
       <c r="F10">
-        <v>98.06110899770088</v>
+        <v>18.22999954223633</v>
       </c>
       <c r="G10">
-        <v>80.56356001156674</v>
+        <v>9.859999656677246</v>
       </c>
       <c r="H10">
-        <v>229140423</v>
+        <v>429709983</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>2894851340</v>
@@ -1516,22 +1468,22 @@
         <v>44651</v>
       </c>
       <c r="D11">
-        <v>564.8420934999623</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="E11">
-        <v>567.5840454101562</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="F11">
-        <v>568.4980293802209</v>
+        <v>7.935999870300293</v>
       </c>
       <c r="G11">
-        <v>487.1534560444658</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="H11">
-        <v>275900103</v>
+        <v>429709983</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>1222738933</v>
@@ -1632,22 +1584,22 @@
         <v>44742</v>
       </c>
       <c r="D12">
-        <v>990.9535599144536</v>
+        <v>8.149999618530273</v>
       </c>
       <c r="E12">
-        <v>932.830322265625</v>
+        <v>8.460000038146973</v>
       </c>
       <c r="F12">
-        <v>1065.275076908038</v>
+        <v>9.289999961853027</v>
       </c>
       <c r="G12">
-        <v>932.830322265625</v>
+        <v>7.48199987411499</v>
       </c>
       <c r="H12">
-        <v>1333460157</v>
+        <v>429709983</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>1400139959</v>
@@ -1748,22 +1700,22 @@
         <v>44834</v>
       </c>
       <c r="D13">
-        <v>3829.951036061672</v>
+        <v>10.85000038146973</v>
       </c>
       <c r="E13">
-        <v>3718.19677734375</v>
+        <v>10.55000019073486</v>
       </c>
       <c r="F13">
-        <v>4026.941593801738</v>
+        <v>11.9350004196167</v>
       </c>
       <c r="G13">
-        <v>3570.453859038701</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="H13">
-        <v>933160187</v>
+        <v>429709983</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>1841535992</v>
@@ -1864,22 +1816,22 @@
         <v>44926</v>
       </c>
       <c r="D14">
-        <v>17.67499923706055</v>
+        <v>7.769999980926514</v>
       </c>
       <c r="E14">
-        <v>19.1200008392334</v>
+        <v>8.329999923706055</v>
       </c>
       <c r="F14">
-        <v>19.76000022888184</v>
+        <v>9.479999542236328</v>
       </c>
       <c r="G14">
-        <v>17.08499908447266</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="H14">
-        <v>795535712</v>
+        <v>429709983</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>1461474794</v>
@@ -1980,22 +1932,22 @@
         <v>45016</v>
       </c>
       <c r="D15">
-        <v>4646.163088703966</v>
+        <v>6.639999866485596</v>
       </c>
       <c r="E15">
-        <v>4397.0390625</v>
+        <v>4.769999980926514</v>
       </c>
       <c r="F15">
-        <v>4647.12125803552</v>
+        <v>7</v>
       </c>
       <c r="G15">
-        <v>4224.568582820331</v>
+        <v>4.619999885559082</v>
       </c>
       <c r="H15">
-        <v>933160187</v>
+        <v>429709983</v>
       </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>1275522036</v>
@@ -2096,22 +2048,22 @@
         <v>45107</v>
       </c>
       <c r="D16">
-        <v>299.8867087280755</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="E16">
-        <v>279.6763610839844</v>
+        <v>14.11999988555908</v>
       </c>
       <c r="F16">
-        <v>311.3327623979251</v>
+        <v>16.7450008392334</v>
       </c>
       <c r="G16">
-        <v>274.7053735580706</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="H16">
-        <v>193969420</v>
+        <v>429709983</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>1436924569</v>
@@ -2212,22 +2164,22 @@
         <v>45199</v>
       </c>
       <c r="D17">
-        <v>1366.269412157012</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="E17">
-        <v>1400.426147460938</v>
+        <v>5.28000020980835</v>
       </c>
       <c r="F17">
-        <v>1722.475366040805</v>
+        <v>7.690000057220459</v>
       </c>
       <c r="G17">
-        <v>1356.510344927319</v>
+        <v>5.130000114440918</v>
       </c>
       <c r="H17">
-        <v>134011000</v>
+        <v>429709983</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>1649250281</v>
@@ -2328,22 +2280,22 @@
         <v>45291</v>
       </c>
       <c r="D18">
-        <v>124.5980016318655</v>
+        <v>9.680000305175779</v>
       </c>
       <c r="E18">
-        <v>132.1493988037109</v>
+        <v>9.409999847412109</v>
       </c>
       <c r="F18">
-        <v>136.1187273141222</v>
+        <v>14.18000030517578</v>
       </c>
       <c r="G18">
-        <v>122.5649354352075</v>
+        <v>9.255000114440918</v>
       </c>
       <c r="H18">
-        <v>229140423</v>
+        <v>429709983</v>
       </c>
       <c r="I18" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>2135905156</v>
@@ -2444,22 +2396,22 @@
         <v>45382</v>
       </c>
       <c r="D19">
-        <v>4156.728619089413</v>
+        <v>9.979999542236328</v>
       </c>
       <c r="E19">
-        <v>4553.76318359375</v>
+        <v>7.820000171661377</v>
       </c>
       <c r="F19">
-        <v>5096.40944657156</v>
+        <v>9.979999542236328</v>
       </c>
       <c r="G19">
-        <v>3750.957352676668</v>
+        <v>7.135000228881836</v>
       </c>
       <c r="H19">
-        <v>175134528</v>
+        <v>429709983</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>2339493122</v>
@@ -2560,22 +2512,22 @@
         <v>45473</v>
       </c>
       <c r="D20">
-        <v>2890.935410112718</v>
+        <v>7.53000020980835</v>
       </c>
       <c r="E20">
-        <v>2691.009033203125</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="F20">
-        <v>3014.889763796666</v>
+        <v>8.734999656677246</v>
       </c>
       <c r="G20">
-        <v>2519.072349060875</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="H20">
-        <v>104878138</v>
+        <v>429709983</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>1782477510</v>
@@ -2676,22 +2628,22 @@
         <v>45565</v>
       </c>
       <c r="D21">
-        <v>31.23959479848472</v>
+        <v>6.510000228881836</v>
       </c>
       <c r="E21">
-        <v>28.76222801208496</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="F21">
-        <v>31.50219696309808</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="G21">
-        <v>28.63340577082776</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="H21">
-        <v>1299391231</v>
+        <v>429709983</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>1852505634</v>
@@ -2792,22 +2744,22 @@
         <v>45657</v>
       </c>
       <c r="D22">
-        <v>2476.994723535176</v>
+        <v>6.909999847412109</v>
       </c>
       <c r="E22">
-        <v>2384.00341796875</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="F22">
-        <v>2758.415779854624</v>
+        <v>8.659999847412109</v>
       </c>
       <c r="G22">
-        <v>2325.761495008725</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="H22">
-        <v>175134528</v>
+        <v>429709983</v>
       </c>
       <c r="I22" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>1937692031</v>
@@ -2908,22 +2860,22 @@
         <v>45747</v>
       </c>
       <c r="D23">
-        <v>3590.70430246099</v>
+        <v>5.320000171661377</v>
       </c>
       <c r="E23">
-        <v>3714.694091796875</v>
+        <v>5.590000152587891</v>
       </c>
       <c r="F23">
-        <v>3714.694091796875</v>
+        <v>6.110000133514404</v>
       </c>
       <c r="G23">
-        <v>3048.748932944461</v>
+        <v>3.789999961853027</v>
       </c>
       <c r="H23">
-        <v>913159452</v>
+        <v>429709983</v>
       </c>
       <c r="I23" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>2126530639</v>
@@ -3024,22 +2976,22 @@
         <v>45838</v>
       </c>
       <c r="D24">
-        <v>2937</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>3025</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="F24">
-        <v>3125</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="G24">
-        <v>2890</v>
+        <v>4.800000190734863</v>
       </c>
       <c r="H24">
-        <v>52985470</v>
+        <v>429709983</v>
       </c>
       <c r="I24" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>2056865449</v>
